--- a/data/case_process.xlsx
+++ b/data/case_process.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +178,58 @@
   </si>
   <si>
     <t>{"id":"","vcode":"811127","tables":"112","openid":"o29U5wq7XF-OutcJRojtmO2exjhY","firmid":"7131C9157F2D4FE3A59C","firmdes":"白广路","listNetOrderDtl[0].foodsid":"E646D9DB4FEA4BAB898A","listNetOrderDtl[0].ordersid":"","listNetOrderDtl[0].foodsname":"美姬松茸菌菇锅底","listNetOrderDtl[0].foodnum":"1","listNetOrderDtl[0].price":"20.00","listNetOrderDtl[0].nprice":"20.00","listNetOrderDtl[0].ispackage":"0","listNetOrderDtl[0].grptyp":"105","listNetOrderDtl[0].grpcode":"10501","listNetOrderDtl[0].pcode":"10501010","listNetOrderDtl[0].unit":"份","listNetOrderDtl[0].unitcode":"101","listNetOrderDtl[0].seq":"E646D9DB4FEA4BAB898A_0","listNetOrderDtl[0].vunitprice":"1","listNetOrderDtl[0].totalprice":"20.00","listNetOrderDtl[0].vipTotalprice":"20.00","money":"20.00","sumprice":"20.00"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"xiabuxiabu_7131C9157F2D4FE3A59C_111_2","appid":"wx5e6c20b2d813400b","openid":"o29U5wq7XF-OutcJRojtmO2exjhY"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orderid":"orderid:(.+?)","tablekey":"tablekey:(.+?)"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tableKey":"${tablekey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tablekey":"tableKey = '(.+?)';"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tableKey":"${tablekey}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,12 +273,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,10 +603,12 @@
     <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="24.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -595,8 +651,11 @@
       <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -618,8 +677,11 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -630,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -642,7 +704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -662,7 +724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -685,7 +747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -714,26 +776,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="31.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="30" style="3" customWidth="1"/>
+    <col min="8" max="14" width="9" style="3"/>
+    <col min="15" max="15" width="15.375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="108" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/case_process.xlsx
+++ b/data/case_process.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A636D32-4D6A-4BD8-9B2B-6E25251BB9AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,47 +158,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>白广路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"","vcode":"811127","tables":"112","openid":"o29U5wq7XF-OutcJRojtmO2exjhY","firmid":"7131C9157F2D4FE3A59C","firmdes":"白广路","listNetOrderDtl[0].foodsid":"E646D9DB4FEA4BAB898A","listNetOrderDtl[0].ordersid":"","listNetOrderDtl[0].foodsname":"美姬松茸菌菇锅底","listNetOrderDtl[0].foodnum":"1","listNetOrderDtl[0].price":"20.00","listNetOrderDtl[0].nprice":"20.00","listNetOrderDtl[0].ispackage":"0","listNetOrderDtl[0].grptyp":"105","listNetOrderDtl[0].grpcode":"10501","listNetOrderDtl[0].pcode":"10501010","listNetOrderDtl[0].unit":"份","listNetOrderDtl[0].unitcode":"101","listNetOrderDtl[0].seq":"E646D9DB4FEA4BAB898A_0","listNetOrderDtl[0].vunitprice":"1","listNetOrderDtl[0].totalprice":"20.00","listNetOrderDtl[0].vipTotalprice":"20.00","money":"20.00","sumprice":"20.00"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"message":"xiabuxiabu_7131C9157F2D4FE3A59C_111_2","appid":"wx5e6c20b2d813400b","openid":"o29U5wq7XF-OutcJRojtmO2exjhY"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白广路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tableKey":"201810107131C9157F2D4FE3A59C112"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tableKey":"201810107131C9157F2D4FE3A59C112"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tableKey":"201810107131C9157F2D4FE3A59C112","soupOrder":"Y"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"id":"","vcode":"811127","tables":"112","openid":"o29U5wq7XF-OutcJRojtmO2exjhY","firmid":"7131C9157F2D4FE3A59C","firmdes":"白广路","listNetOrderDtl[0].foodsid":"E646D9DB4FEA4BAB898A","listNetOrderDtl[0].ordersid":"","listNetOrderDtl[0].foodsname":"美姬松茸菌菇锅底","listNetOrderDtl[0].foodnum":"1","listNetOrderDtl[0].price":"20.00","listNetOrderDtl[0].nprice":"20.00","listNetOrderDtl[0].ispackage":"0","listNetOrderDtl[0].grptyp":"105","listNetOrderDtl[0].grpcode":"10501","listNetOrderDtl[0].pcode":"10501010","listNetOrderDtl[0].unit":"份","listNetOrderDtl[0].unitcode":"101","listNetOrderDtl[0].seq":"E646D9DB4FEA4BAB898A_0","listNetOrderDtl[0].vunitprice":"1","listNetOrderDtl[0].totalprice":"20.00","listNetOrderDtl[0].vipTotalprice":"20.00","money":"20.00","sumprice":"20.00"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度一下</t>
+    <t>{"tableKey":"${tablekey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,38 +206,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"message":"xiabuxiabu_7131C9157F2D4FE3A59C_111_2","appid":"wx5e6c20b2d813400b","openid":"o29U5wq7XF-OutcJRojtmO2exjhY"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"orderid":"orderid:(.+?)","tablekey":"tablekey:(.+?)"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tableKey":"${tablekey}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"tablekey":"tableKey = '(.+?)';"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tableKey":"${tablekey}"}</t>
+    <t>{"tableKey":"${tablekey}","soupOrder":"Y"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"message":"xiabuxiabu_7131C9157F2D4FE3A59C_111_2","appid":"wx5e6c20b2d813400b","openid":"${tablekey}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tablekey":"tableKey = '(.+?)';"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,6 +283,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -341,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +366,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,7 +624,7 @@
     <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="37.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
@@ -652,7 +678,7 @@
         <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="81" x14ac:dyDescent="0.15">
@@ -666,19 +692,19 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -692,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -715,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -724,7 +750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -735,19 +761,19 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -758,7 +784,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>31</v>
@@ -775,11 +801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -837,12 +863,12 @@
         <v>32</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -851,7 +877,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -859,7 +885,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -867,30 +893,30 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
